--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Desktop/4r_gh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F804E440-1A42-7E4A-AAB7-CF03A736B6F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3695ABC1-7453-EF47-89F9-7289883CAC43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{F23B4AF2-7F7F-E147-BB32-94E5327AB649}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{F23B4AF2-7F7F-E147-BB32-94E5327AB649}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN BOARD" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="0.96 OLED BOARD" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_0_96_OLED_FOR_1U" localSheetId="2">'0.96 OLED BOARD'!$A$1:$H$9</definedName>
-    <definedName name="_4robots_MAIN_1_1" localSheetId="0">'MAIN BOARD'!$A$1:$X$37</definedName>
-    <definedName name="_4ROBOTS_UI_v_1_1" localSheetId="1">'UI BOARD'!$A$1:$H$10</definedName>
+    <definedName name="_0_96_OLED_FOR_1U" localSheetId="2">'0.96 OLED BOARD'!$A$1:$I$9</definedName>
+    <definedName name="_4robots_MAIN_1_1" localSheetId="0">'MAIN BOARD'!$A$1:$Y$37</definedName>
+    <definedName name="_4ROBOTS_UI_v_1_1" localSheetId="1">'UI BOARD'!$A$1:$I$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +40,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{C0127441-1384-2949-9E13-185E15F49D63}" name="0_96_OLED_FOR_1U" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/shayshez/Desktop/4r_gh/0_96_OLED_FOR_1U.csv" semicolon="1">
+    <textPr sourceFile="/Users/shayshez/Desktop/4r_gh/0_96_OLED_FOR_1U.csv" semicolon="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -54,7 +54,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{B8E1F63D-8DB5-9249-BC18-86FE99DB5CB0}" name="4robots_MAIN_1_1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/shayshez/Documents/eagle/projects/1uO_c_ij/4robots_MAIN_1_1.csv" semicolon="1">
+    <textPr sourceFile="/Users/shayshez/Documents/eagle/projects/1uO_c_ij/4robots_MAIN_1_1.csv" semicolon="1">
       <textFields count="24">
         <textField/>
         <textField/>
@@ -84,7 +84,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{FF09B096-F3A6-0D4D-83F1-7A6F63D63C81}" name="4ROBOTS_UI_v_1_1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/shayshez/Documents/eagle/projects/1uO_c_ij/4ROBOTS_UI_v_1_1.csv" semicolon="1">
+    <textPr sourceFile="/Users/shayshez/Documents/eagle/projects/1uO_c_ij/4ROBOTS_UI_v_1_1.csv" semicolon="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="248">
   <si>
     <t>Qty</t>
   </si>
@@ -731,6 +731,120 @@
   </si>
   <si>
     <t>Standoffs spacers 6mm</t>
+  </si>
+  <si>
+    <t>Mouser part#</t>
+  </si>
+  <si>
+    <t>71-CRCW0603100KFKEAC</t>
+  </si>
+  <si>
+    <t>279-CRGCQ0603F220R</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF2402V</t>
+  </si>
+  <si>
+    <t>755-SFR03EZPF3302</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF7502V</t>
+  </si>
+  <si>
+    <t>652-CR0603-FX2001EPF</t>
+  </si>
+  <si>
+    <t>71-CRCW0603100RFKEAC</t>
+  </si>
+  <si>
+    <t>279-CRGP0603F10K</t>
+  </si>
+  <si>
+    <t>80-C0603C104Z3V</t>
+  </si>
+  <si>
+    <t>81-GRM188R61E106KA3J</t>
+  </si>
+  <si>
+    <t>581-06035A220JAT4A</t>
+  </si>
+  <si>
+    <t>581-06035A561JAT4A</t>
+  </si>
+  <si>
+    <t>963-UMK107B7474KA-TR</t>
+  </si>
+  <si>
+    <t>810-CGA3E1X7R1E105K</t>
+  </si>
+  <si>
+    <t>963-TMK316BJ106KL-T</t>
+  </si>
+  <si>
+    <t>667-EEE-FK1H100SR</t>
+  </si>
+  <si>
+    <t>667-EEE-FK1H220SR</t>
+  </si>
+  <si>
+    <t>598-AVE106M16A12T-F</t>
+  </si>
+  <si>
+    <t>963-LB3218T100K</t>
+  </si>
+  <si>
+    <t>621-1N5819HW-F</t>
+  </si>
+  <si>
+    <t>863-MMBT3904LT1G</t>
+  </si>
+  <si>
+    <t>584-ADP150AUJZ-3.3R7</t>
+  </si>
+  <si>
+    <t>595-DAC8565IAPW</t>
+  </si>
+  <si>
+    <t>511-LD1117S50</t>
+  </si>
+  <si>
+    <t>926-LM321MF</t>
+  </si>
+  <si>
+    <t>926-LM4040DIM350NOPB</t>
+  </si>
+  <si>
+    <t>579-MCP6002T-I/SN</t>
+  </si>
+  <si>
+    <t>595-TL072CDR</t>
+  </si>
+  <si>
+    <t>998-MIC803-26D2VM3TR</t>
+  </si>
+  <si>
+    <t>474-DEV-13736</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-07510RL</t>
+  </si>
+  <si>
+    <t>Thonk</t>
+  </si>
+  <si>
+    <t>612-TL1105SP-250</t>
+  </si>
+  <si>
+    <t>612-1R-BK</t>
+  </si>
+  <si>
+    <t>858-EN11-HSM1BF20</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-07390KL</t>
+  </si>
+  <si>
+    <t>963-EMK107BJ225MA-T</t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE7F356-43CD-D142-A10C-55AC0E489769}">
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,27 +1252,28 @@
     <col min="3" max="3" width="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+    <col min="7" max="7" width="76" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1175,66 +1290,69 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1251,13 +1369,16 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1274,13 +1395,16 @@
         <v>74</v>
       </c>
       <c r="F4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1297,13 +1421,16 @@
         <v>83</v>
       </c>
       <c r="F5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1320,13 +1447,16 @@
         <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1343,13 +1473,16 @@
         <v>81</v>
       </c>
       <c r="F7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1366,13 +1499,16 @@
         <v>86</v>
       </c>
       <c r="F8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" t="s">
         <v>35</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1389,13 +1525,16 @@
         <v>146</v>
       </c>
       <c r="F9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1412,18 +1551,21 @@
         <v>145</v>
       </c>
       <c r="F10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" t="s">
         <v>35</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1440,10 +1582,13 @@
         <v>75</v>
       </c>
       <c r="F12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1460,10 +1605,13 @@
         <v>84</v>
       </c>
       <c r="F13" t="s">
+        <v>222</v>
+      </c>
+      <c r="G13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1480,10 +1628,13 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1500,10 +1651,13 @@
         <v>88</v>
       </c>
       <c r="F15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1520,10 +1674,13 @@
         <v>72</v>
       </c>
       <c r="F16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1540,15 +1697,18 @@
         <v>47</v>
       </c>
       <c r="F17" t="s">
+        <v>220</v>
+      </c>
+      <c r="G17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1565,15 +1725,18 @@
         <v>50</v>
       </c>
       <c r="F19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1590,13 +1753,16 @@
         <v>53</v>
       </c>
       <c r="F21" t="s">
+        <v>226</v>
+      </c>
+      <c r="G21" t="s">
         <v>54</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1613,10 +1779,13 @@
         <v>58</v>
       </c>
       <c r="F22" t="s">
+        <v>228</v>
+      </c>
+      <c r="G22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1633,18 +1802,21 @@
         <v>79</v>
       </c>
       <c r="F23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" t="s">
         <v>54</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1661,18 +1833,21 @@
         <v>63</v>
       </c>
       <c r="F25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" t="s">
         <v>64</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1689,10 +1864,13 @@
         <v>69</v>
       </c>
       <c r="F27" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1709,28 +1887,31 @@
         <v>92</v>
       </c>
       <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" t="s">
         <v>93</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>94</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>95</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>96</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>97</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>98</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1747,28 +1928,31 @@
         <v>102</v>
       </c>
       <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s">
         <v>103</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>94</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>104</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>105</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>100</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>106</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1785,28 +1969,31 @@
         <v>110</v>
       </c>
       <c r="F30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" t="s">
         <v>111</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>94</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>112</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>113</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>108</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>114</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1823,10 +2010,13 @@
         <v>118</v>
       </c>
       <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1843,10 +2033,13 @@
         <v>123</v>
       </c>
       <c r="F32" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1863,10 +2056,13 @@
         <v>127</v>
       </c>
       <c r="F33" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1883,25 +2079,28 @@
         <v>131</v>
       </c>
       <c r="F34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" t="s">
         <v>132</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>129</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>132</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>133</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>134</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1917,17 +2116,20 @@
       <c r="E35" t="s">
         <v>138</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="s">
+        <v>231</v>
+      </c>
+      <c r="G35">
         <v>305010013</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>135</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1944,10 +2146,13 @@
         <v>141</v>
       </c>
       <c r="F36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1963,13 +2168,16 @@
       <c r="E37" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1986,7 +2194,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1999,11 +2207,11 @@
       <c r="E40" t="s">
         <v>23</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2016,11 +2224,11 @@
       <c r="E41" t="s">
         <v>27</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2033,7 +2241,7 @@
       <c r="E42" t="s">
         <v>31</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2045,10 +2253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E9828B-6E3A-9F4A-BA1C-4B2A103FE947}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2057,11 +2265,12 @@
     <col min="2" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
+    <col min="7" max="7" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2077,19 +2286,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2106,13 +2315,16 @@
         <v>173</v>
       </c>
       <c r="F3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2129,18 +2341,21 @@
         <v>170</v>
       </c>
       <c r="F4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2157,10 +2372,13 @@
         <v>169</v>
       </c>
       <c r="F6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2177,15 +2395,18 @@
         <v>171</v>
       </c>
       <c r="F7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12</v>
       </c>
@@ -2201,8 +2422,11 @@
       <c r="E9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2219,10 +2443,13 @@
         <v>177</v>
       </c>
       <c r="F10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2239,18 +2466,24 @@
         <v>165</v>
       </c>
       <c r="F11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2267,12 +2500,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2285,11 +2518,11 @@
       <c r="E15" t="s">
         <v>160</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2302,11 +2535,11 @@
       <c r="E16" t="s">
         <v>161</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2319,7 +2552,7 @@
       <c r="E17" t="s">
         <v>162</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2331,10 +2564,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822CB76A-C7AE-3643-8E43-C251573BA9B1}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2344,11 +2577,12 @@
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2364,19 +2598,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -2393,10 +2627,13 @@
         <v>196</v>
       </c>
       <c r="F3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2413,15 +2650,18 @@
         <v>203</v>
       </c>
       <c r="F4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2438,10 +2678,13 @@
         <v>201</v>
       </c>
       <c r="F6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2458,10 +2701,13 @@
         <v>198</v>
       </c>
       <c r="F7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2478,7 +2724,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2491,14 +2737,14 @@
       <c r="E10" t="s">
         <v>191</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>28</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
